--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_Carl_Haussknecht/Heinrich_Carl_Haussknecht.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_Carl_Haussknecht/Heinrich_Carl_Haussknecht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Carl Haussknecht est un pharmacien et un botaniste prussien, né en 1838 à BennungenBennungen en province de Saxe et mort en 1903 à Weimar.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de pharmacie, il donne des leçons particulières à Weimar. Il se consacre également à l’étude de la flore de Thuringe et de la Basse-Saxe. Entre 1864 et 1869, il voyage dans l'Empire ottoman, notamment en Asie Mineure, et dans les actuels Syrie et Irak, ainsi qu'en Perse, les spécimens récoltés enrichissant ainsi son herbier. En 1885, il herborise en Grèce.
 Haussknecht s’intéresse particulièrement au genre Epilobium de la famille des Onagraceae et leur consacre une monographie en 1884 : Monographie der Gattung Epilobium Haussk (Gustav Fischer Verlag. Iéna).
@@ -544,9 +558,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre monospécifique Haussknechtia (Apiaceae) lui est dédié par Pierre Edmond Boissier en 1873[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre monospécifique Haussknechtia (Apiaceae) lui est dédié par Pierre Edmond Boissier en 1873.
 </t>
         </is>
       </c>
